--- a/ZoneRPA/DebugFile.xlsx
+++ b/ZoneRPA/DebugFile.xlsx
@@ -14,33 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <x:si>
-    <x:t>D02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boiler Temp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/23/2022 2:03:31 AM</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <x:si>
+    <x:t>asd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghjghjghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/24/2022 6:27:54 PM</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/edit.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/dbdd99c6-5569-4b51-a181-389b21104c41</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Edit/d992fde9-452c-4cc8-bd9a-84e4ea53e3cc</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/details.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/dbdd99c6-5569-4b51-a181-389b21104c41</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Details/d992fde9-452c-4cc8-bd9a-84e4ea53e3cc</x:t>
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/images/delete.png</x:t>
   </x:si>
   <x:si>
-    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/dbdd99c6-5569-4b51-a181-389b21104c41</x:t>
+    <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/d992fde9-452c-4cc8-bd9a-84e4ea53e3cc</x:t>
   </x:si>
   <x:si>
     <x:t>D01</x:t>
@@ -77,9 +77,6 @@
   </x:si>
   <x:si>
     <x:t>https://connectedoffice-devicemanagement.azurewebsites.net/Zones/Delete/7d8e0c87-309e-4641-b19c-5593ec55b0f0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asd</x:t>
   </x:si>
   <x:si>
     <x:t>10/24/2022 5:36:36 PM</x:t>
@@ -645,234 +642,234 @@
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
+      <x:c r="K4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="K6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="K7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12">
       <x:c r="A8" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
+      <x:c r="K8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L8" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12">
       <x:c r="A9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
+      <x:c r="K9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12">
       <x:c r="A10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
+      <x:c r="K10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L10" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
       <x:c r="A11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="H11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
+      <x:c r="K11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L11" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
